--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44400</v>
+        <v>43300</v>
       </c>
       <c r="E8" s="3">
-        <v>42700</v>
+        <v>41600</v>
       </c>
       <c r="F8" s="3">
-        <v>41800</v>
+        <v>40800</v>
       </c>
       <c r="G8" s="3">
-        <v>42600</v>
+        <v>41600</v>
       </c>
       <c r="H8" s="3">
-        <v>32600</v>
+        <v>31800</v>
       </c>
       <c r="I8" s="3">
-        <v>27900</v>
+        <v>27200</v>
       </c>
       <c r="J8" s="3">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="K8" s="3">
         <v>21800</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48100</v>
+        <v>47000</v>
       </c>
       <c r="E9" s="3">
-        <v>47000</v>
+        <v>45800</v>
       </c>
       <c r="F9" s="3">
-        <v>47800</v>
+        <v>46700</v>
       </c>
       <c r="G9" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="H9" s="3">
-        <v>38800</v>
+        <v>37800</v>
       </c>
       <c r="I9" s="3">
-        <v>32800</v>
+        <v>32000</v>
       </c>
       <c r="J9" s="3">
-        <v>27500</v>
+        <v>26900</v>
       </c>
       <c r="K9" s="3">
         <v>23300</v>
@@ -776,25 +776,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G10" s="3">
         <v>-3800</v>
       </c>
-      <c r="E10" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H10" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="I10" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="J10" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K10" s="3">
         <v>-1600</v>
@@ -818,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H12" s="3">
         <v>2300</v>
@@ -879,13 +879,13 @@
         <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H14" s="3">
         <v>900</v>
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>62400</v>
+        <v>60800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
@@ -982,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="3">
-        <v>-19800</v>
+        <v>-19300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>12</v>
@@ -1102,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="E23" s="3">
-        <v>-21000</v>
+        <v>-20500</v>
       </c>
       <c r="F23" s="3">
-        <v>-22200</v>
+        <v>-21700</v>
       </c>
       <c r="G23" s="3">
-        <v>-25300</v>
+        <v>-24700</v>
       </c>
       <c r="H23" s="3">
-        <v>-19900</v>
+        <v>-19400</v>
       </c>
       <c r="I23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-12900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-13200</v>
       </c>
       <c r="K23" s="3">
         <v>-10200</v>
@@ -1198,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="3">
-        <v>-25300</v>
+        <v>-24700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="3">
-        <v>-31600</v>
+        <v>-30800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="3">
-        <v>-31600</v>
+        <v>-30800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>12</v>
@@ -1459,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="3">
-        <v>-31600</v>
+        <v>-30800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -1539,7 +1539,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49100</v>
+        <v>47900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27400</v>
+        <v>26700</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
@@ -1655,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35300</v>
+        <v>34500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -1684,7 +1684,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>111800</v>
+        <v>109100</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>12</v>
@@ -1742,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>178500</v>
+        <v>174100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>12</v>
@@ -1916,7 +1916,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>292000</v>
+        <v>284800</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>12</v>
@@ -1971,7 +1971,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44300</v>
+        <v>43200</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>12</v>
@@ -2000,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>157200</v>
+        <v>153300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
@@ -2029,7 +2029,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45300</v>
+        <v>44200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
@@ -2058,7 +2058,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246800</v>
+        <v>240700</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
@@ -2087,7 +2087,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72900</v>
+        <v>71100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68100</v>
+        <v>66500</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>12</v>
@@ -2232,7 +2232,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>389300</v>
+        <v>379700</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>12</v>
@@ -2332,7 +2332,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>192100</v>
+        <v>187400</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-291100</v>
+        <v>-283900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>12</v>
@@ -2506,7 +2506,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-289400</v>
+        <v>-282300</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>12</v>
@@ -2607,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="3">
-        <v>-31600</v>
+        <v>-30800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>12</v>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43300</v>
+        <v>44900</v>
       </c>
       <c r="E8" s="3">
-        <v>41600</v>
+        <v>43200</v>
       </c>
       <c r="F8" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="G8" s="3">
-        <v>41600</v>
+        <v>43100</v>
       </c>
       <c r="H8" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="I8" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="J8" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="K8" s="3">
         <v>21800</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47000</v>
+        <v>48700</v>
       </c>
       <c r="E9" s="3">
-        <v>45800</v>
+        <v>47500</v>
       </c>
       <c r="F9" s="3">
-        <v>46700</v>
+        <v>48400</v>
       </c>
       <c r="G9" s="3">
-        <v>45400</v>
+        <v>47100</v>
       </c>
       <c r="H9" s="3">
-        <v>37800</v>
+        <v>39200</v>
       </c>
       <c r="I9" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="J9" s="3">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="K9" s="3">
         <v>23300</v>
@@ -776,25 +776,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="E10" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="F10" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="G10" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="H10" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="I10" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="J10" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K10" s="3">
         <v>-1600</v>
@@ -818,16 +818,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="3">
         <v>2300</v>
@@ -836,7 +836,7 @@
         <v>1900</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K12" s="3">
         <v>1300</v>
@@ -876,16 +876,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1700</v>
-      </c>
       <c r="G14" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
         <v>900</v>
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>60800</v>
+        <v>63100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
@@ -982,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="3">
-        <v>-19300</v>
+        <v>-20000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>12</v>
@@ -1102,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10000</v>
+        <v>-10400</v>
       </c>
       <c r="E23" s="3">
-        <v>-20500</v>
+        <v>-21300</v>
       </c>
       <c r="F23" s="3">
-        <v>-21700</v>
+        <v>-22500</v>
       </c>
       <c r="G23" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="H23" s="3">
-        <v>-19400</v>
+        <v>-20200</v>
       </c>
       <c r="I23" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="J23" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="K23" s="3">
         <v>-10200</v>
@@ -1198,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
@@ -1227,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="3">
-        <v>-30800</v>
+        <v>-32000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
@@ -1372,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>12</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="3">
-        <v>-30800</v>
+        <v>-32000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>12</v>
@@ -1459,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="3">
-        <v>-30800</v>
+        <v>-32000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -1539,7 +1539,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47900</v>
+        <v>49700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>12</v>
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
@@ -1655,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34500</v>
+        <v>35800</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -1684,7 +1684,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>109100</v>
+        <v>113200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>12</v>
@@ -1742,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174100</v>
+        <v>180700</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>12</v>
@@ -1916,7 +1916,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>284800</v>
+        <v>295600</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>12</v>
@@ -1971,7 +1971,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43200</v>
+        <v>44800</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>12</v>
@@ -2000,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153300</v>
+        <v>159100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>12</v>
@@ -2029,7 +2029,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
@@ -2058,7 +2058,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>240700</v>
+        <v>249800</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
@@ -2087,7 +2087,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71100</v>
+        <v>73800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66500</v>
+        <v>69000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>12</v>
@@ -2232,7 +2232,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>379700</v>
+        <v>394000</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>12</v>
@@ -2332,7 +2332,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>187400</v>
+        <v>194500</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-283900</v>
+        <v>-294600</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>12</v>
@@ -2506,7 +2506,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-282300</v>
+        <v>-292900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>12</v>
@@ -2607,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="3">
-        <v>-30800</v>
+        <v>-32000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>12</v>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>QK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44900</v>
+        <v>51100</v>
       </c>
       <c r="E8" s="3">
-        <v>43200</v>
+        <v>47100</v>
       </c>
       <c r="F8" s="3">
-        <v>42300</v>
+        <v>45200</v>
       </c>
       <c r="G8" s="3">
-        <v>43100</v>
+        <v>44300</v>
       </c>
       <c r="H8" s="3">
-        <v>33000</v>
+        <v>45200</v>
       </c>
       <c r="I8" s="3">
-        <v>28200</v>
+        <v>34500</v>
       </c>
       <c r="J8" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K8" s="3">
         <v>25000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>48700</v>
+        <v>53500</v>
       </c>
       <c r="E9" s="3">
-        <v>47500</v>
+        <v>51000</v>
       </c>
       <c r="F9" s="3">
-        <v>48400</v>
+        <v>49800</v>
       </c>
       <c r="G9" s="3">
-        <v>47100</v>
+        <v>50700</v>
       </c>
       <c r="H9" s="3">
-        <v>39200</v>
+        <v>49300</v>
       </c>
       <c r="I9" s="3">
-        <v>33200</v>
+        <v>41100</v>
       </c>
       <c r="J9" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K9" s="3">
         <v>27900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-3800</v>
+        <v>-2400</v>
       </c>
       <c r="E10" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="F10" s="3">
-        <v>-6100</v>
+        <v>-4600</v>
       </c>
       <c r="G10" s="3">
-        <v>-4000</v>
+        <v>-6400</v>
       </c>
       <c r="H10" s="3">
-        <v>-6300</v>
+        <v>-4200</v>
       </c>
       <c r="I10" s="3">
-        <v>-5000</v>
+        <v>-6600</v>
       </c>
       <c r="J10" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="3">
         <v>2000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1300</v>
       </c>
       <c r="K12" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -879,28 +899,31 @@
         <v>1900</v>
       </c>
       <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>1800</v>
-      </c>
       <c r="G14" s="3">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="H14" s="3">
-        <v>900</v>
+        <v>4600</v>
       </c>
       <c r="I14" s="3">
         <v>900</v>
       </c>
       <c r="J14" s="3">
+        <v>900</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,13 +964,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
+      <c r="D17" s="3">
+        <v>66400</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>12</v>
@@ -952,11 +979,11 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3">
-        <v>63100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>66100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
@@ -967,13 +994,16 @@
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
+      <c r="D18" s="3">
+        <v>-15300</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>12</v>
@@ -981,11 +1011,11 @@
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-21000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,13 +1042,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
+      <c r="D20" s="3">
+        <v>-3700</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>12</v>
@@ -1023,11 +1057,11 @@
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>12</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1052,11 +1089,11 @@
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,11 +1121,11 @@
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>12</v>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10400</v>
+        <v>-19000</v>
       </c>
       <c r="E23" s="3">
-        <v>-21300</v>
+        <v>-10900</v>
       </c>
       <c r="F23" s="3">
-        <v>-22500</v>
+        <v>-22300</v>
       </c>
       <c r="G23" s="3">
-        <v>-25600</v>
+        <v>-23600</v>
       </c>
       <c r="H23" s="3">
-        <v>-20200</v>
+        <v>-26800</v>
       </c>
       <c r="I23" s="3">
-        <v>-13100</v>
+        <v>-21100</v>
       </c>
       <c r="J23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1152,10 +1198,13 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,13 +1232,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
+      <c r="D26" s="3">
+        <v>-19000</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>12</v>
@@ -1197,11 +1249,11 @@
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="3">
-        <v>-25600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-26800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -1212,13 +1264,16 @@
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
+      <c r="D27" s="3">
+        <v>-37600</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>12</v>
@@ -1226,11 +1281,11 @@
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-33500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,13 +1424,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>12</v>
+      <c r="D32" s="3">
+        <v>3700</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>12</v>
@@ -1371,11 +1441,11 @@
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
@@ -1386,13 +1456,16 @@
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
+      <c r="D33" s="3">
+        <v>-37600</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -1400,11 +1473,11 @@
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
+      <c r="G33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-33500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,13 +1520,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>12</v>
+      <c r="D35" s="3">
+        <v>-37600</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>12</v>
@@ -1458,11 +1537,11 @@
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-33500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,16 +1619,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49700</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>52100</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,16 +1681,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27700</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>10800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29000</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,16 +1745,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>12</v>
+        <v>55600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>37500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
@@ -1678,16 +1777,19 @@
       <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>113200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
+        <v>90700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>118600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>180700</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
+        <v>180300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>189200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
@@ -1765,16 +1873,19 @@
       <c r="K48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1800</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1969,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,16 +2033,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>295600</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>12</v>
+        <v>273800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>309600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2095,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44800</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>12</v>
+        <v>42200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>47000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
@@ -1994,16 +2125,19 @@
       <c r="K57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
+        <v>163700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>166600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
@@ -2023,16 +2157,19 @@
       <c r="K58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>12</v>
+        <v>52400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>48000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
@@ -2052,16 +2189,19 @@
       <c r="K59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>249800</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
+        <v>258200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>261700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
@@ -2081,16 +2221,19 @@
       <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73800</v>
+        <v>65200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>77300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2110,16 +2253,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>12</v>
+        <v>73800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>72200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>12</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,16 +2381,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>394000</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>12</v>
+        <v>398600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>412700</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,16 +2491,19 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>194500</v>
+        <v>222300</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>203700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2555,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-294600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>12</v>
+        <v>-346200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-308600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>12</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,16 +2683,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-292900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>12</v>
+        <v>-347100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-306800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>12</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,47 +2747,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>12</v>
+      <c r="D81" s="3">
+        <v>-37600</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>12</v>
@@ -2606,11 +2801,11 @@
       <c r="F81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
+      <c r="G81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-33500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>QK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,154 +666,180 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51100</v>
+        <v>88700</v>
       </c>
       <c r="E8" s="3">
-        <v>47100</v>
+        <v>95800</v>
       </c>
       <c r="F8" s="3">
-        <v>45200</v>
+        <v>51300</v>
       </c>
       <c r="G8" s="3">
-        <v>44300</v>
+        <v>47300</v>
       </c>
       <c r="H8" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="I8" s="3">
+        <v>44500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K8" s="3">
         <v>34500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>29500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>53500</v>
+        <v>79900</v>
       </c>
       <c r="E9" s="3">
-        <v>51000</v>
+        <v>106200</v>
       </c>
       <c r="F9" s="3">
-        <v>49800</v>
+        <v>53700</v>
       </c>
       <c r="G9" s="3">
-        <v>50700</v>
+        <v>51300</v>
       </c>
       <c r="H9" s="3">
-        <v>49300</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K9" s="3">
         <v>41100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>27900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F10" s="3">
         <v>-2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-4000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-4600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-6400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-6600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-5300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,19 +852,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2100</v>
       </c>
       <c r="G12" s="3">
         <v>1900</v>
@@ -847,19 +875,25 @@
         <v>2100</v>
       </c>
       <c r="I12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="J14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K14" s="3">
+        <v>900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>900</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,63 +1017,71 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>66700</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="3">
         <v>66400</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="3">
-        <v>66100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>-160100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-15400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="3">
-        <v>-21000</v>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
+      <c r="J18" s="3">
+        <v>-21100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
@@ -1029,8 +1089,14 @@
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1109,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>-10500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,29 +1160,35 @@
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
+      <c r="F21" s="3">
+        <v>-6700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1118,61 +1198,73 @@
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
+      <c r="F22" s="3">
+        <v>3900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19000</v>
+        <v>-170600</v>
       </c>
       <c r="E23" s="3">
-        <v>-10900</v>
+        <v>-63700</v>
       </c>
       <c r="F23" s="3">
-        <v>-22300</v>
+        <v>-19100</v>
       </c>
       <c r="G23" s="3">
-        <v>-23600</v>
+        <v>-11000</v>
       </c>
       <c r="H23" s="3">
-        <v>-26800</v>
+        <v>-22400</v>
       </c>
       <c r="I23" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1192,19 +1284,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,31 +1333,37 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
+        <v>-170600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-19100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="3">
-        <v>-26800</v>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>12</v>
+      <c r="J26" s="3">
+        <v>-26900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
@@ -1267,31 +1371,37 @@
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
+        <v>-170600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-37800</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="3">
-        <v>-33500</v>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
+      <c r="J27" s="3">
+        <v>-33600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
@@ -1299,8 +1409,14 @@
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,63 +1561,75 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3700</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
+        <v>10500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
+        <v>-170600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-37800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="3">
-        <v>-33500</v>
+      <c r="H33" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
+      <c r="J33" s="3">
+        <v>-33600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
@@ -1491,8 +1637,14 @@
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,31 +1675,37 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
+        <v>-170600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-37800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="3">
-        <v>-33500</v>
+      <c r="H35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>12</v>
+      <c r="J35" s="3">
+        <v>-33600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
@@ -1555,45 +1713,57 @@
       <c r="L35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,22 +1792,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24300</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
-        <v>52100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>12</v>
+        <v>19200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>52300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,22 +1864,28 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10800</v>
+        <v>2800</v>
       </c>
       <c r="E43" s="3">
-        <v>29000</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>33200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>29200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,22 +1940,28 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55600</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>37500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>12</v>
+        <v>65400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>37600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -1780,22 +1978,28 @@
       <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>90700</v>
+        <v>31000</v>
       </c>
       <c r="E46" s="3">
-        <v>118600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>12</v>
+        <v>86700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>91100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>119100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,22 +2054,28 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>180300</v>
+        <v>54700</v>
       </c>
       <c r="E48" s="3">
-        <v>189200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>12</v>
+        <v>140200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>181100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>190100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -1876,22 +2092,28 @@
       <c r="L48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800</v>
+        <v>35500</v>
       </c>
       <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>12</v>
+      <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>12</v>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,22 +2206,28 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>12</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>12</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,22 +2282,28 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>273800</v>
+        <v>130000</v>
       </c>
       <c r="E54" s="3">
-        <v>309600</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>12</v>
+        <v>239800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>275000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>310900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,22 +2356,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42200</v>
+        <v>45000</v>
       </c>
       <c r="E57" s="3">
-        <v>47000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>12</v>
+        <v>53200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>42300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>47200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -2128,22 +2390,28 @@
       <c r="L57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>163700</v>
+        <v>124800</v>
       </c>
       <c r="E58" s="3">
-        <v>166600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>12</v>
+        <v>133300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>164400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>167400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -2160,22 +2428,28 @@
       <c r="L58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52400</v>
+        <v>130000</v>
       </c>
       <c r="E59" s="3">
-        <v>48000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>12</v>
+        <v>55300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>52600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>48300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -2192,22 +2466,28 @@
       <c r="L59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>258200</v>
+        <v>299700</v>
       </c>
       <c r="E60" s="3">
-        <v>261700</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>12</v>
+        <v>241800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>259300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>262800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -2224,22 +2504,28 @@
       <c r="L60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65200</v>
+        <v>102600</v>
       </c>
       <c r="E61" s="3">
-        <v>77300</v>
+        <v>73700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>65400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>77700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2256,22 +2542,28 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73800</v>
+        <v>32400</v>
       </c>
       <c r="E62" s="3">
-        <v>72200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>12</v>
+        <v>61800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>74100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>72500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2694,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>398600</v>
+        <v>436200</v>
       </c>
       <c r="E66" s="3">
-        <v>412700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>12</v>
+        <v>378800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>400300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>414500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,22 +2824,28 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>222300</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>203700</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>223300</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>204600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2900,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-346200</v>
+        <v>-582000</v>
       </c>
       <c r="E72" s="3">
-        <v>-308600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>12</v>
+        <v>-411400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-347700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-309900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,22 +3052,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-347100</v>
+        <v>-306200</v>
       </c>
       <c r="E76" s="3">
-        <v>-306800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>12</v>
+        <v>-139000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-348600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-308100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,68 +3128,80 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
+        <v>-170600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-37800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="3">
-        <v>-33500</v>
+      <c r="H81" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>12</v>
+      <c r="J81" s="3">
+        <v>-33600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
@@ -2819,8 +3209,14 @@
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3229,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>8500</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,31 +3453,37 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-5000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3511,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-8300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3621,37 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-9700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,31 +3827,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-16200</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3373,31 +3865,37 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-30500</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>88700</v>
+        <v>90600</v>
       </c>
       <c r="E8" s="3">
-        <v>95800</v>
+        <v>97800</v>
       </c>
       <c r="F8" s="3">
-        <v>51300</v>
+        <v>52400</v>
       </c>
       <c r="G8" s="3">
-        <v>47300</v>
+        <v>48300</v>
       </c>
       <c r="H8" s="3">
+        <v>46400</v>
+      </c>
+      <c r="I8" s="3">
         <v>45400</v>
       </c>
-      <c r="I8" s="3">
-        <v>44500</v>
-      </c>
       <c r="J8" s="3">
-        <v>45400</v>
+        <v>46300</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>79900</v>
+        <v>81500</v>
       </c>
       <c r="E9" s="3">
-        <v>106200</v>
+        <v>108400</v>
       </c>
       <c r="F9" s="3">
-        <v>53700</v>
+        <v>54800</v>
       </c>
       <c r="G9" s="3">
-        <v>51300</v>
+        <v>52300</v>
       </c>
       <c r="H9" s="3">
-        <v>50000</v>
+        <v>51100</v>
       </c>
       <c r="I9" s="3">
-        <v>50900</v>
+        <v>52000</v>
       </c>
       <c r="J9" s="3">
-        <v>49500</v>
+        <v>50600</v>
       </c>
       <c r="K9" s="3">
         <v>41100</v>
@@ -806,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E10" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="F10" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G10" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H10" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I10" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="J10" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K10" s="3">
         <v>-6600</v>
@@ -872,13 +872,13 @@
         <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I12" s="3">
         <v>1900</v>
       </c>
       <c r="J12" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -936,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>91200</v>
+        <v>93100</v>
       </c>
       <c r="E14" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="F14" s="3">
         <v>2000</v>
@@ -948,13 +948,13 @@
         <v>2000</v>
       </c>
       <c r="H14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I14" s="3">
         <v>1900</v>
       </c>
       <c r="J14" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>900</v>
@@ -1025,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>248900</v>
+        <v>254100</v>
       </c>
       <c r="E17" s="3">
-        <v>165000</v>
+        <v>168500</v>
       </c>
       <c r="F17" s="3">
-        <v>66700</v>
+        <v>68100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
@@ -1043,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="3">
-        <v>66400</v>
+        <v>67800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>12</v>
@@ -1063,13 +1063,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-160100</v>
+        <v>-163500</v>
       </c>
       <c r="E18" s="3">
-        <v>-69200</v>
+        <v>-70600</v>
       </c>
       <c r="F18" s="3">
-        <v>-15400</v>
+        <v>-15700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="3">
-        <v>-21100</v>
+        <v>-21500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
@@ -1117,10 +1117,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1161,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
@@ -1211,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>12</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-170600</v>
+        <v>-174200</v>
       </c>
       <c r="E23" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="F23" s="3">
-        <v>-19100</v>
+        <v>-19500</v>
       </c>
       <c r="G23" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="H23" s="3">
-        <v>-22400</v>
+        <v>-22900</v>
       </c>
       <c r="I23" s="3">
-        <v>-23700</v>
+        <v>-24200</v>
       </c>
       <c r="J23" s="3">
-        <v>-26900</v>
+        <v>-27500</v>
       </c>
       <c r="K23" s="3">
         <v>-21100</v>
@@ -1345,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-170600</v>
+        <v>-174200</v>
       </c>
       <c r="E26" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="F26" s="3">
-        <v>-19100</v>
+        <v>-19500</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="3">
-        <v>-26900</v>
+        <v>-27500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-170600</v>
+        <v>-174200</v>
       </c>
       <c r="E27" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="F27" s="3">
-        <v>-37800</v>
+        <v>-38600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="3">
-        <v>-33600</v>
+        <v>-34300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
@@ -1573,10 +1573,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1611,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-170600</v>
+        <v>-174200</v>
       </c>
       <c r="E33" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="F33" s="3">
-        <v>-37800</v>
+        <v>-38600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
@@ -1629,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="J33" s="3">
-        <v>-33600</v>
+        <v>-34300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
@@ -1687,13 +1687,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-170600</v>
+        <v>-174200</v>
       </c>
       <c r="E35" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="F35" s="3">
-        <v>-37800</v>
+        <v>-38600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="3">
-        <v>-33600</v>
+        <v>-34300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
@@ -1800,16 +1800,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F41" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="G41" s="3">
-        <v>52300</v>
+        <v>53400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -1879,13 +1879,13 @@
         <v>2800</v>
       </c>
       <c r="E43" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F43" s="3">
-        <v>33200</v>
+        <v>33900</v>
       </c>
       <c r="G43" s="3">
-        <v>29200</v>
+        <v>29800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -1952,16 +1952,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="E45" s="3">
-        <v>65400</v>
+        <v>66800</v>
       </c>
       <c r="F45" s="3">
-        <v>33500</v>
+        <v>34200</v>
       </c>
       <c r="G45" s="3">
-        <v>37600</v>
+        <v>38400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -1990,16 +1990,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="E46" s="3">
-        <v>86700</v>
+        <v>88600</v>
       </c>
       <c r="F46" s="3">
-        <v>91100</v>
+        <v>93100</v>
       </c>
       <c r="G46" s="3">
-        <v>119100</v>
+        <v>121600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -2066,16 +2066,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54700</v>
+        <v>55900</v>
       </c>
       <c r="E48" s="3">
-        <v>140200</v>
+        <v>143200</v>
       </c>
       <c r="F48" s="3">
-        <v>181100</v>
+        <v>184900</v>
       </c>
       <c r="G48" s="3">
-        <v>190100</v>
+        <v>194100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -2104,13 +2104,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35500</v>
+        <v>36300</v>
       </c>
       <c r="E49" s="3">
         <v>1800</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3">
         <v>1800</v>
@@ -2218,10 +2218,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2294,16 +2294,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130000</v>
+        <v>132700</v>
       </c>
       <c r="E54" s="3">
-        <v>239800</v>
+        <v>244900</v>
       </c>
       <c r="F54" s="3">
-        <v>275000</v>
+        <v>280800</v>
       </c>
       <c r="G54" s="3">
-        <v>310900</v>
+        <v>317500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -2364,16 +2364,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45000</v>
+        <v>45900</v>
       </c>
       <c r="E57" s="3">
-        <v>53200</v>
+        <v>54300</v>
       </c>
       <c r="F57" s="3">
-        <v>42300</v>
+        <v>43200</v>
       </c>
       <c r="G57" s="3">
-        <v>47200</v>
+        <v>48200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -2402,16 +2402,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>124800</v>
+        <v>127400</v>
       </c>
       <c r="E58" s="3">
-        <v>133300</v>
+        <v>136200</v>
       </c>
       <c r="F58" s="3">
-        <v>164400</v>
+        <v>167800</v>
       </c>
       <c r="G58" s="3">
-        <v>167400</v>
+        <v>170900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -2440,16 +2440,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>130000</v>
+        <v>132700</v>
       </c>
       <c r="E59" s="3">
-        <v>55300</v>
+        <v>56500</v>
       </c>
       <c r="F59" s="3">
-        <v>52600</v>
+        <v>53700</v>
       </c>
       <c r="G59" s="3">
-        <v>48300</v>
+        <v>49300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -2478,16 +2478,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>299700</v>
+        <v>306100</v>
       </c>
       <c r="E60" s="3">
-        <v>241800</v>
+        <v>246900</v>
       </c>
       <c r="F60" s="3">
-        <v>259300</v>
+        <v>264800</v>
       </c>
       <c r="G60" s="3">
-        <v>262800</v>
+        <v>268400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -2516,16 +2516,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>102600</v>
+        <v>104700</v>
       </c>
       <c r="E61" s="3">
-        <v>73700</v>
+        <v>75300</v>
       </c>
       <c r="F61" s="3">
-        <v>65400</v>
+        <v>66800</v>
       </c>
       <c r="G61" s="3">
-        <v>77700</v>
+        <v>79300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="E62" s="3">
-        <v>61800</v>
+        <v>63100</v>
       </c>
       <c r="F62" s="3">
+        <v>75700</v>
+      </c>
+      <c r="G62" s="3">
         <v>74100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>72500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -2706,16 +2706,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>436200</v>
+        <v>445400</v>
       </c>
       <c r="E66" s="3">
-        <v>378800</v>
+        <v>386800</v>
       </c>
       <c r="F66" s="3">
-        <v>400300</v>
+        <v>408800</v>
       </c>
       <c r="G66" s="3">
-        <v>414500</v>
+        <v>423300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>223300</v>
+        <v>228000</v>
       </c>
       <c r="G70" s="3">
-        <v>204600</v>
+        <v>208900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2912,16 +2912,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-582000</v>
+        <v>-594300</v>
       </c>
       <c r="E72" s="3">
-        <v>-411400</v>
+        <v>-420100</v>
       </c>
       <c r="F72" s="3">
-        <v>-347700</v>
+        <v>-355100</v>
       </c>
       <c r="G72" s="3">
-        <v>-309900</v>
+        <v>-316500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
@@ -3064,16 +3064,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-306200</v>
+        <v>-312700</v>
       </c>
       <c r="E76" s="3">
-        <v>-139000</v>
+        <v>-142000</v>
       </c>
       <c r="F76" s="3">
-        <v>-348600</v>
+        <v>-356000</v>
       </c>
       <c r="G76" s="3">
-        <v>-308100</v>
+        <v>-314600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
@@ -3183,13 +3183,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-170600</v>
+        <v>-174200</v>
       </c>
       <c r="E81" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="F81" s="3">
-        <v>-37800</v>
+        <v>-38600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>12</v>
@@ -3201,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="J81" s="3">
-        <v>-33600</v>
+        <v>-34300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
@@ -3243,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="F83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>12</v>
@@ -3471,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="F89" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>12</v>
@@ -3525,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>12</v>
@@ -3639,7 +3639,7 @@
         <v>12</v>
       </c>
       <c r="F94" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>12</v>
@@ -3845,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="F100" s="3">
-        <v>-16200</v>
+        <v>-16500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>12</v>
@@ -3883,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
@@ -3921,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="3">
-        <v>-30500</v>
+        <v>-31200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>12</v>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>90600</v>
+        <v>89400</v>
       </c>
       <c r="E8" s="3">
-        <v>97800</v>
+        <v>96600</v>
       </c>
       <c r="F8" s="3">
-        <v>52400</v>
+        <v>51700</v>
       </c>
       <c r="G8" s="3">
-        <v>48300</v>
+        <v>47600</v>
       </c>
       <c r="H8" s="3">
-        <v>46400</v>
+        <v>45800</v>
       </c>
       <c r="I8" s="3">
-        <v>45400</v>
+        <v>44800</v>
       </c>
       <c r="J8" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="K8" s="3">
         <v>34500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>81500</v>
+        <v>80500</v>
       </c>
       <c r="E9" s="3">
-        <v>108400</v>
+        <v>107000</v>
       </c>
       <c r="F9" s="3">
-        <v>54800</v>
+        <v>54100</v>
       </c>
       <c r="G9" s="3">
-        <v>52300</v>
+        <v>51700</v>
       </c>
       <c r="H9" s="3">
-        <v>51100</v>
+        <v>50400</v>
       </c>
       <c r="I9" s="3">
-        <v>52000</v>
+        <v>51300</v>
       </c>
       <c r="J9" s="3">
-        <v>50600</v>
+        <v>49900</v>
       </c>
       <c r="K9" s="3">
         <v>41100</v>
@@ -806,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="E10" s="3">
-        <v>-10600</v>
+        <v>-10400</v>
       </c>
       <c r="F10" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G10" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="H10" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I10" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="J10" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K10" s="3">
         <v>-6600</v>
@@ -872,13 +872,13 @@
         <v>1900</v>
       </c>
       <c r="H12" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I12" s="3">
         <v>1900</v>
       </c>
       <c r="J12" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K12" s="3">
         <v>2500</v>
@@ -936,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>93100</v>
+        <v>91900</v>
       </c>
       <c r="E14" s="3">
-        <v>39000</v>
+        <v>38500</v>
       </c>
       <c r="F14" s="3">
         <v>2000</v>
@@ -954,7 +954,7 @@
         <v>1900</v>
       </c>
       <c r="J14" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K14" s="3">
         <v>900</v>
@@ -1025,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>254100</v>
+        <v>250800</v>
       </c>
       <c r="E17" s="3">
-        <v>168500</v>
+        <v>166300</v>
       </c>
       <c r="F17" s="3">
-        <v>68100</v>
+        <v>67200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
@@ -1043,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="3">
-        <v>67800</v>
+        <v>66900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>12</v>
@@ -1063,13 +1063,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-163500</v>
+        <v>-161400</v>
       </c>
       <c r="E18" s="3">
-        <v>-70600</v>
+        <v>-69700</v>
       </c>
       <c r="F18" s="3">
-        <v>-15700</v>
+        <v>-15500</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="3">
-        <v>-21500</v>
+        <v>-21200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>12</v>
@@ -1117,10 +1117,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1161,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>12</v>
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>12</v>
@@ -1211,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>12</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-174200</v>
+        <v>-172000</v>
       </c>
       <c r="E23" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="F23" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="G23" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="H23" s="3">
-        <v>-22900</v>
+        <v>-22600</v>
       </c>
       <c r="I23" s="3">
-        <v>-24200</v>
+        <v>-23900</v>
       </c>
       <c r="J23" s="3">
-        <v>-27500</v>
+        <v>-27100</v>
       </c>
       <c r="K23" s="3">
         <v>-21100</v>
@@ -1345,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-174200</v>
+        <v>-172000</v>
       </c>
       <c r="E26" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="F26" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="J26" s="3">
-        <v>-27500</v>
+        <v>-27100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>12</v>
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-174200</v>
+        <v>-172000</v>
       </c>
       <c r="E27" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="F27" s="3">
-        <v>-38600</v>
+        <v>-38100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="J27" s="3">
-        <v>-34300</v>
+        <v>-33900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>12</v>
@@ -1573,10 +1573,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1611,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-174200</v>
+        <v>-172000</v>
       </c>
       <c r="E33" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="F33" s="3">
-        <v>-38600</v>
+        <v>-38100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
@@ -1629,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="J33" s="3">
-        <v>-34300</v>
+        <v>-33900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>12</v>
@@ -1687,13 +1687,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-174200</v>
+        <v>-172000</v>
       </c>
       <c r="E35" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="F35" s="3">
-        <v>-38600</v>
+        <v>-38100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="3">
-        <v>-34300</v>
+        <v>-33900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>12</v>
@@ -1800,16 +1800,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
-        <v>19600</v>
+        <v>19300</v>
       </c>
       <c r="F41" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="G41" s="3">
-        <v>53400</v>
+        <v>52700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>12</v>
@@ -1882,10 +1882,10 @@
         <v>2200</v>
       </c>
       <c r="F43" s="3">
-        <v>33900</v>
+        <v>33500</v>
       </c>
       <c r="G43" s="3">
-        <v>29800</v>
+        <v>29400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>12</v>
@@ -1952,16 +1952,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>66800</v>
+        <v>65900</v>
       </c>
       <c r="F45" s="3">
-        <v>34200</v>
+        <v>33800</v>
       </c>
       <c r="G45" s="3">
-        <v>38400</v>
+        <v>37900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>12</v>
@@ -1990,16 +1990,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31700</v>
+        <v>31300</v>
       </c>
       <c r="E46" s="3">
-        <v>88600</v>
+        <v>87400</v>
       </c>
       <c r="F46" s="3">
-        <v>93100</v>
+        <v>91900</v>
       </c>
       <c r="G46" s="3">
-        <v>121600</v>
+        <v>120000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>12</v>
@@ -2066,16 +2066,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55900</v>
+        <v>55100</v>
       </c>
       <c r="E48" s="3">
-        <v>143200</v>
+        <v>141300</v>
       </c>
       <c r="F48" s="3">
-        <v>184900</v>
+        <v>182500</v>
       </c>
       <c r="G48" s="3">
-        <v>194100</v>
+        <v>191600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>12</v>
@@ -2104,13 +2104,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="E49" s="3">
         <v>1800</v>
       </c>
       <c r="F49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G49" s="3">
         <v>1800</v>
@@ -2218,10 +2218,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2294,16 +2294,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>132700</v>
+        <v>131000</v>
       </c>
       <c r="E54" s="3">
-        <v>244900</v>
+        <v>241700</v>
       </c>
       <c r="F54" s="3">
-        <v>280800</v>
+        <v>277100</v>
       </c>
       <c r="G54" s="3">
-        <v>317500</v>
+        <v>313400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>12</v>
@@ -2364,16 +2364,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45900</v>
+        <v>45300</v>
       </c>
       <c r="E57" s="3">
-        <v>54300</v>
+        <v>53600</v>
       </c>
       <c r="F57" s="3">
-        <v>43200</v>
+        <v>42700</v>
       </c>
       <c r="G57" s="3">
-        <v>48200</v>
+        <v>47600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>12</v>
@@ -2402,16 +2402,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>127400</v>
+        <v>125700</v>
       </c>
       <c r="E58" s="3">
-        <v>136200</v>
+        <v>134400</v>
       </c>
       <c r="F58" s="3">
-        <v>167800</v>
+        <v>165700</v>
       </c>
       <c r="G58" s="3">
-        <v>170900</v>
+        <v>168700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>12</v>
@@ -2440,16 +2440,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>132700</v>
+        <v>131000</v>
       </c>
       <c r="E59" s="3">
-        <v>56500</v>
+        <v>55700</v>
       </c>
       <c r="F59" s="3">
-        <v>53700</v>
+        <v>53000</v>
       </c>
       <c r="G59" s="3">
-        <v>49300</v>
+        <v>48600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>12</v>
@@ -2478,16 +2478,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>306100</v>
+        <v>302100</v>
       </c>
       <c r="E60" s="3">
-        <v>246900</v>
+        <v>243700</v>
       </c>
       <c r="F60" s="3">
-        <v>264800</v>
+        <v>261300</v>
       </c>
       <c r="G60" s="3">
-        <v>268400</v>
+        <v>264900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
@@ -2516,16 +2516,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104700</v>
+        <v>103400</v>
       </c>
       <c r="E61" s="3">
-        <v>75300</v>
+        <v>74300</v>
       </c>
       <c r="F61" s="3">
-        <v>66800</v>
+        <v>66000</v>
       </c>
       <c r="G61" s="3">
-        <v>79300</v>
+        <v>78300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="E62" s="3">
-        <v>63100</v>
+        <v>62300</v>
       </c>
       <c r="F62" s="3">
-        <v>75700</v>
+        <v>74700</v>
       </c>
       <c r="G62" s="3">
-        <v>74100</v>
+        <v>73100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>12</v>
@@ -2706,16 +2706,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>445400</v>
+        <v>439600</v>
       </c>
       <c r="E66" s="3">
-        <v>386800</v>
+        <v>381800</v>
       </c>
       <c r="F66" s="3">
-        <v>408800</v>
+        <v>403500</v>
       </c>
       <c r="G66" s="3">
-        <v>423300</v>
+        <v>417800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>228000</v>
+        <v>225000</v>
       </c>
       <c r="G70" s="3">
-        <v>208900</v>
+        <v>206200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2912,16 +2912,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-594300</v>
+        <v>-586600</v>
       </c>
       <c r="E72" s="3">
-        <v>-420100</v>
+        <v>-414600</v>
       </c>
       <c r="F72" s="3">
-        <v>-355100</v>
+        <v>-350400</v>
       </c>
       <c r="G72" s="3">
-        <v>-316500</v>
+        <v>-312400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
@@ -3064,16 +3064,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-312700</v>
+        <v>-308600</v>
       </c>
       <c r="E76" s="3">
-        <v>-142000</v>
+        <v>-140100</v>
       </c>
       <c r="F76" s="3">
-        <v>-356000</v>
+        <v>-351400</v>
       </c>
       <c r="G76" s="3">
-        <v>-314600</v>
+        <v>-310600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>12</v>
@@ -3183,13 +3183,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-174200</v>
+        <v>-172000</v>
       </c>
       <c r="E81" s="3">
-        <v>-65000</v>
+        <v>-64200</v>
       </c>
       <c r="F81" s="3">
-        <v>-38600</v>
+        <v>-38100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>12</v>
@@ -3201,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="J81" s="3">
-        <v>-34300</v>
+        <v>-33900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>12</v>
@@ -3243,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="F83" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>12</v>
@@ -3471,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="F89" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>12</v>
@@ -3525,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>12</v>
@@ -3639,7 +3639,7 @@
         <v>12</v>
       </c>
       <c r="F94" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>12</v>
@@ -3845,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="F100" s="3">
-        <v>-16500</v>
+        <v>-16300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>12</v>
@@ -3883,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
@@ -3921,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="F102" s="3">
-        <v>-31200</v>
+        <v>-30800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>12</v>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>QK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>89400</v>
+        <v>96300</v>
       </c>
       <c r="E8" s="3">
-        <v>96600</v>
+        <v>90900</v>
       </c>
       <c r="F8" s="3">
-        <v>51700</v>
+        <v>98200</v>
       </c>
       <c r="G8" s="3">
-        <v>47600</v>
+        <v>52600</v>
       </c>
       <c r="H8" s="3">
-        <v>45800</v>
+        <v>48400</v>
       </c>
       <c r="I8" s="3">
-        <v>44800</v>
+        <v>46600</v>
       </c>
       <c r="J8" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K8" s="3">
         <v>45700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>80500</v>
+        <v>107100</v>
       </c>
       <c r="E9" s="3">
-        <v>107000</v>
+        <v>81800</v>
       </c>
       <c r="F9" s="3">
-        <v>54100</v>
+        <v>108800</v>
       </c>
       <c r="G9" s="3">
-        <v>51700</v>
+        <v>55000</v>
       </c>
       <c r="H9" s="3">
-        <v>50400</v>
+        <v>52500</v>
       </c>
       <c r="I9" s="3">
-        <v>51300</v>
+        <v>51200</v>
       </c>
       <c r="J9" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K9" s="3">
         <v>49900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9000</v>
+        <v>-10800</v>
       </c>
       <c r="E10" s="3">
-        <v>-10400</v>
+        <v>9100</v>
       </c>
       <c r="F10" s="3">
-        <v>-2400</v>
+        <v>-10600</v>
       </c>
       <c r="G10" s="3">
-        <v>-4000</v>
+        <v>-2500</v>
       </c>
       <c r="H10" s="3">
-        <v>-4600</v>
+        <v>-4100</v>
       </c>
       <c r="I10" s="3">
-        <v>-6500</v>
+        <v>-4700</v>
       </c>
       <c r="J10" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
-        <v>1300</v>
-      </c>
       <c r="G12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
       </c>
       <c r="N12" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>91900</v>
+        <v>13200</v>
       </c>
       <c r="E14" s="3">
-        <v>38500</v>
+        <v>93400</v>
       </c>
       <c r="F14" s="3">
-        <v>2000</v>
+        <v>39100</v>
       </c>
       <c r="G14" s="3">
         <v>2000</v>
       </c>
       <c r="H14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>900</v>
       </c>
       <c r="L14" s="3">
         <v>900</v>
       </c>
       <c r="M14" s="3">
+        <v>900</v>
+      </c>
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,22 +1045,23 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>250800</v>
+        <v>134400</v>
       </c>
       <c r="E17" s="3">
-        <v>166300</v>
+        <v>255000</v>
       </c>
       <c r="F17" s="3">
-        <v>67200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>169100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>68300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
@@ -1042,12 +1069,12 @@
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="3">
         <v>66900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1057,22 +1084,25 @@
       <c r="N17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-161400</v>
+        <v>-38100</v>
       </c>
       <c r="E18" s="3">
-        <v>-69700</v>
+        <v>-164100</v>
       </c>
       <c r="F18" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>-70900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-15800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>12</v>
@@ -1080,12 +1110,12 @@
       <c r="I18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3">
         <v>-21200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,35 +1144,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>-10800</v>
       </c>
       <c r="F20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1149,22 +1183,25 @@
       <c r="N20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
+      <c r="D21" s="3">
+        <v>-40400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>18100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
@@ -1172,12 +1209,12 @@
       <c r="I21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,11 +1238,11 @@
       <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>12</v>
@@ -1210,12 +1250,12 @@
       <c r="I22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3">
         <v>3400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-172000</v>
+        <v>-48200</v>
       </c>
       <c r="E23" s="3">
-        <v>-64200</v>
+        <v>-174800</v>
       </c>
       <c r="F23" s="3">
-        <v>-19300</v>
+        <v>-65300</v>
       </c>
       <c r="G23" s="3">
-        <v>-11000</v>
+        <v>-19600</v>
       </c>
       <c r="H23" s="3">
-        <v>-22600</v>
+        <v>-11200</v>
       </c>
       <c r="I23" s="3">
-        <v>-23900</v>
+        <v>-22900</v>
       </c>
       <c r="J23" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1290,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1299,10 +1345,13 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,22 +1388,25 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-172000</v>
+        <v>-48200</v>
       </c>
       <c r="E26" s="3">
-        <v>-64200</v>
+        <v>-174800</v>
       </c>
       <c r="F26" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>-65300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-19600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>12</v>
@@ -1362,12 +1414,12 @@
       <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="3">
         <v>-27100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1377,22 +1429,25 @@
       <c r="N26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-172000</v>
+        <v>-48200</v>
       </c>
       <c r="E27" s="3">
-        <v>-64200</v>
+        <v>-174800</v>
       </c>
       <c r="F27" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
+        <v>-65300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-38700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
@@ -1400,12 +1455,12 @@
       <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="3">
         <v>-33900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,35 +1634,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>10800</v>
       </c>
       <c r="F32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1605,22 +1675,25 @@
       <c r="N32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-172000</v>
+        <v>-48200</v>
       </c>
       <c r="E33" s="3">
-        <v>-64200</v>
+        <v>-174800</v>
       </c>
       <c r="F33" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
+        <v>-65300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-38700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>12</v>
@@ -1628,12 +1701,12 @@
       <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="3">
         <v>-33900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,22 +1757,25 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-172000</v>
+        <v>-48200</v>
       </c>
       <c r="E35" s="3">
-        <v>-64200</v>
+        <v>-174800</v>
       </c>
       <c r="F35" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>12</v>
+        <v>-65300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-38700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -1704,12 +1783,12 @@
       <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="3">
         <v>-33900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,25 +1880,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="E41" s="3">
-        <v>19300</v>
+        <v>3600</v>
       </c>
       <c r="F41" s="3">
-        <v>24600</v>
+        <v>19600</v>
       </c>
       <c r="G41" s="3">
-        <v>52700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>12</v>
+        <v>25000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>53600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>12</v>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,25 +1960,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
-        <v>33500</v>
-      </c>
       <c r="G43" s="3">
-        <v>29400</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>34000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>29900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>12</v>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,25 +2042,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>13500</v>
       </c>
       <c r="E45" s="3">
-        <v>65900</v>
+        <v>25400</v>
       </c>
       <c r="F45" s="3">
-        <v>33800</v>
+        <v>67100</v>
       </c>
       <c r="G45" s="3">
-        <v>37900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
+        <v>34300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>38600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>12</v>
@@ -1984,25 +2083,28 @@
       <c r="N45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31300</v>
+        <v>21100</v>
       </c>
       <c r="E46" s="3">
-        <v>87400</v>
+        <v>31800</v>
       </c>
       <c r="F46" s="3">
-        <v>91900</v>
+        <v>88900</v>
       </c>
       <c r="G46" s="3">
-        <v>120000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>12</v>
+        <v>93400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>122000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>12</v>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,25 +2165,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55100</v>
+        <v>46800</v>
       </c>
       <c r="E48" s="3">
-        <v>141300</v>
+        <v>56100</v>
       </c>
       <c r="F48" s="3">
-        <v>182500</v>
+        <v>143700</v>
       </c>
       <c r="G48" s="3">
-        <v>191600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
+        <v>185600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>194800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>12</v>
@@ -2098,26 +2206,29 @@
       <c r="N48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35800</v>
+        <v>26200</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>36400</v>
       </c>
       <c r="F49" s="3">
         <v>1800</v>
       </c>
       <c r="G49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,25 +2329,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8800</v>
+        <v>13900</v>
       </c>
       <c r="E52" s="3">
-        <v>11200</v>
+        <v>8900</v>
       </c>
       <c r="F52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>12</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,25 +2411,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>131000</v>
+        <v>108000</v>
       </c>
       <c r="E54" s="3">
-        <v>241700</v>
+        <v>133200</v>
       </c>
       <c r="F54" s="3">
-        <v>277100</v>
+        <v>245800</v>
       </c>
       <c r="G54" s="3">
-        <v>313400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>12</v>
+        <v>281800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>318600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>12</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2488,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45300</v>
+        <v>54500</v>
       </c>
       <c r="E57" s="3">
-        <v>53600</v>
+        <v>46100</v>
       </c>
       <c r="F57" s="3">
-        <v>42700</v>
+        <v>54500</v>
       </c>
       <c r="G57" s="3">
-        <v>47600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>12</v>
+        <v>43400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>48300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>12</v>
@@ -2396,25 +2527,28 @@
       <c r="N57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125700</v>
+        <v>90900</v>
       </c>
       <c r="E58" s="3">
-        <v>134400</v>
+        <v>127900</v>
       </c>
       <c r="F58" s="3">
-        <v>165700</v>
+        <v>136600</v>
       </c>
       <c r="G58" s="3">
-        <v>168700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>12</v>
+        <v>168400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>171500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>12</v>
@@ -2434,25 +2568,28 @@
       <c r="N58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131000</v>
+        <v>171300</v>
       </c>
       <c r="E59" s="3">
-        <v>55700</v>
+        <v>133200</v>
       </c>
       <c r="F59" s="3">
-        <v>53000</v>
+        <v>56700</v>
       </c>
       <c r="G59" s="3">
-        <v>48600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>12</v>
+        <v>53900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>49500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>12</v>
@@ -2472,25 +2609,28 @@
       <c r="N59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>302100</v>
+        <v>316700</v>
       </c>
       <c r="E60" s="3">
-        <v>243700</v>
+        <v>307100</v>
       </c>
       <c r="F60" s="3">
-        <v>261300</v>
+        <v>247800</v>
       </c>
       <c r="G60" s="3">
-        <v>264900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>12</v>
+        <v>265700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>269300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>12</v>
@@ -2510,25 +2650,28 @@
       <c r="N60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>103400</v>
+        <v>91100</v>
       </c>
       <c r="E61" s="3">
-        <v>74300</v>
+        <v>105100</v>
       </c>
       <c r="F61" s="3">
-        <v>66000</v>
+        <v>75600</v>
       </c>
       <c r="G61" s="3">
-        <v>78300</v>
+        <v>67100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>79600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2548,25 +2691,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32700</v>
+        <v>49600</v>
       </c>
       <c r="E62" s="3">
-        <v>62300</v>
+        <v>33200</v>
       </c>
       <c r="F62" s="3">
-        <v>74700</v>
+        <v>63400</v>
       </c>
       <c r="G62" s="3">
-        <v>73100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>12</v>
+        <v>76000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>74300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>12</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,25 +2855,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>439600</v>
+        <v>458900</v>
       </c>
       <c r="E66" s="3">
-        <v>381800</v>
+        <v>446900</v>
       </c>
       <c r="F66" s="3">
-        <v>403500</v>
+        <v>388200</v>
       </c>
       <c r="G66" s="3">
-        <v>417800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>12</v>
+        <v>410200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>424800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>12</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>225000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>206200</v>
+        <v>228800</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>209600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,25 +3077,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-586600</v>
+        <v>-644600</v>
       </c>
       <c r="E72" s="3">
-        <v>-414600</v>
+        <v>-596400</v>
       </c>
       <c r="F72" s="3">
-        <v>-350400</v>
+        <v>-421600</v>
       </c>
       <c r="G72" s="3">
-        <v>-312400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>12</v>
+        <v>-356300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-317600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>12</v>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3241,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-308600</v>
+        <v>-350800</v>
       </c>
       <c r="E76" s="3">
-        <v>-140100</v>
+        <v>-313800</v>
       </c>
       <c r="F76" s="3">
-        <v>-351400</v>
+        <v>-142500</v>
       </c>
       <c r="G76" s="3">
-        <v>-310600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>12</v>
+        <v>-357200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-315800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>12</v>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,65 +3323,71 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-172000</v>
+        <v>-48200</v>
       </c>
       <c r="E81" s="3">
-        <v>-64200</v>
+        <v>-174800</v>
       </c>
       <c r="F81" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>12</v>
+        <v>-65300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-38700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>12</v>
@@ -3200,12 +3395,12 @@
       <c r="I81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="3">
         <v>-33900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>12</v>
       </c>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,25 +3429,26 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>12</v>
+      <c r="D83" s="3">
+        <v>7800</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>12</v>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>24900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>12</v>
@@ -3257,8 +3456,8 @@
       <c r="J83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,25 +3673,28 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>12</v>
+      <c r="D89" s="3">
+        <v>-12100</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>12</v>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-8700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>12</v>
@@ -3485,8 +3702,8 @@
       <c r="J89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,25 +3733,26 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>12</v>
+      <c r="D91" s="3">
+        <v>-600</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>12</v>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-45000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>12</v>
@@ -3539,8 +3760,8 @@
       <c r="J91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,25 +3854,28 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>12</v>
+      <c r="D94" s="3">
+        <v>-600</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>12</v>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-45000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>12</v>
@@ -3653,8 +3883,8 @@
       <c r="J94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,25 +4076,28 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>12</v>
+      <c r="D100" s="3">
+        <v>10700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>12</v>
+      <c r="F100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3">
+        <v>89200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>105700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>12</v>
@@ -3859,8 +4105,8 @@
       <c r="J100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3871,25 +4117,28 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>12</v>
+      <c r="D101" s="3">
+        <v>1200</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>12</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>12</v>
@@ -3897,8 +4146,8 @@
       <c r="J101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3909,25 +4158,28 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>12</v>
+      <c r="D102" s="3">
+        <v>-800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="3">
-        <v>-30800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>12</v>
+      <c r="F102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>52000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>12</v>
@@ -3935,8 +4187,8 @@
       <c r="J102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>QK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>96300</v>
+        <v>66400</v>
       </c>
       <c r="E8" s="3">
-        <v>90900</v>
+        <v>97100</v>
       </c>
       <c r="F8" s="3">
-        <v>98200</v>
+        <v>91600</v>
       </c>
       <c r="G8" s="3">
-        <v>52600</v>
+        <v>98900</v>
       </c>
       <c r="H8" s="3">
-        <v>48400</v>
+        <v>53000</v>
       </c>
       <c r="I8" s="3">
-        <v>46600</v>
+        <v>48800</v>
       </c>
       <c r="J8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K8" s="3">
         <v>45600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107100</v>
+        <v>41900</v>
       </c>
       <c r="E9" s="3">
-        <v>81800</v>
+        <v>107900</v>
       </c>
       <c r="F9" s="3">
-        <v>108800</v>
+        <v>82500</v>
       </c>
       <c r="G9" s="3">
-        <v>55000</v>
+        <v>109600</v>
       </c>
       <c r="H9" s="3">
-        <v>52500</v>
+        <v>55500</v>
       </c>
       <c r="I9" s="3">
-        <v>51200</v>
+        <v>52900</v>
       </c>
       <c r="J9" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K9" s="3">
         <v>52200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-10800</v>
+        <v>24500</v>
       </c>
       <c r="E10" s="3">
-        <v>9100</v>
+        <v>-10900</v>
       </c>
       <c r="F10" s="3">
-        <v>-10600</v>
+        <v>9200</v>
       </c>
       <c r="G10" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H10" s="3">
         <v>-2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-6600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-6600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +881,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1300</v>
       </c>
       <c r="O12" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,49 +967,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>13200</v>
+        <v>24800</v>
       </c>
       <c r="E14" s="3">
-        <v>93400</v>
+        <v>13300</v>
       </c>
       <c r="F14" s="3">
-        <v>39100</v>
+        <v>94100</v>
       </c>
       <c r="G14" s="3">
-        <v>2000</v>
+        <v>39400</v>
       </c>
       <c r="H14" s="3">
         <v>2000</v>
       </c>
       <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>900</v>
       </c>
       <c r="M14" s="3">
         <v>900</v>
       </c>
       <c r="N14" s="3">
+        <v>900</v>
+      </c>
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,25 +1072,26 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>134400</v>
+        <v>97700</v>
       </c>
       <c r="E17" s="3">
-        <v>255000</v>
+        <v>135500</v>
       </c>
       <c r="F17" s="3">
-        <v>169100</v>
+        <v>257000</v>
       </c>
       <c r="G17" s="3">
-        <v>68300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>12</v>
+        <v>170400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>68900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
@@ -1072,12 +1099,12 @@
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3">
         <v>66900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1087,25 +1114,28 @@
       <c r="O17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-38100</v>
+        <v>-31300</v>
       </c>
       <c r="E18" s="3">
-        <v>-164100</v>
+        <v>-38400</v>
       </c>
       <c r="F18" s="3">
-        <v>-70900</v>
+        <v>-165300</v>
       </c>
       <c r="G18" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>-71400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-15900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -1113,12 +1143,12 @@
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="3">
         <v>-21200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1128,8 +1158,11 @@
       <c r="O18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,38 +1178,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="E20" s="3">
-        <v>-10800</v>
+        <v>-10200</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>-10900</v>
       </c>
       <c r="G20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1186,25 +1220,28 @@
       <c r="O20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>-36600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-40700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
-        <v>18100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3">
+        <v>18200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
@@ -1212,12 +1249,12 @@
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1227,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,24 +1281,24 @@
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3">
         <v>3400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1268,49 +1308,55 @@
       <c r="O22" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-48200</v>
+        <v>-41200</v>
       </c>
       <c r="E23" s="3">
-        <v>-174800</v>
+        <v>-48600</v>
       </c>
       <c r="F23" s="3">
-        <v>-65300</v>
+        <v>-176200</v>
       </c>
       <c r="G23" s="3">
-        <v>-19600</v>
+        <v>-65800</v>
       </c>
       <c r="H23" s="3">
-        <v>-11200</v>
+        <v>-19700</v>
       </c>
       <c r="I23" s="3">
-        <v>-22900</v>
+        <v>-11300</v>
       </c>
       <c r="J23" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1348,10 +1394,13 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,25 +1440,28 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-48200</v>
+        <v>-41200</v>
       </c>
       <c r="E26" s="3">
-        <v>-174800</v>
+        <v>-48600</v>
       </c>
       <c r="F26" s="3">
-        <v>-65300</v>
+        <v>-176200</v>
       </c>
       <c r="G26" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
+        <v>-65800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-19700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -1417,12 +1469,12 @@
       <c r="J26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="3">
         <v>-27100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1432,25 +1484,28 @@
       <c r="O26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-48200</v>
+        <v>-41200</v>
       </c>
       <c r="E27" s="3">
-        <v>-174800</v>
+        <v>-48600</v>
       </c>
       <c r="F27" s="3">
-        <v>-65300</v>
+        <v>-176200</v>
       </c>
       <c r="G27" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>-65800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-39000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
@@ -1458,12 +1513,12 @@
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="3">
         <v>-33900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1528,11 @@
       <c r="O27" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,38 +1704,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="E32" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>10900</v>
       </c>
       <c r="G32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1678,25 +1748,28 @@
       <c r="O32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48200</v>
+        <v>-41200</v>
       </c>
       <c r="E33" s="3">
-        <v>-174800</v>
+        <v>-48600</v>
       </c>
       <c r="F33" s="3">
-        <v>-65300</v>
+        <v>-176200</v>
       </c>
       <c r="G33" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
+        <v>-65800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-39000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -1704,12 +1777,12 @@
       <c r="J33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="3">
         <v>-33900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1719,8 +1792,11 @@
       <c r="O33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,25 +1836,28 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48200</v>
+        <v>-41200</v>
       </c>
       <c r="E35" s="3">
-        <v>-174800</v>
+        <v>-48600</v>
       </c>
       <c r="F35" s="3">
-        <v>-65300</v>
+        <v>-176200</v>
       </c>
       <c r="G35" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
+        <v>-65800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-39000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
@@ -1786,12 +1865,12 @@
       <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="3">
         <v>-33900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1801,54 +1880,60 @@
       <c r="O35" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,28 +1967,29 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4100</v>
+        <v>2600</v>
       </c>
       <c r="E41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
-        <v>19600</v>
-      </c>
       <c r="G41" s="3">
-        <v>25000</v>
+        <v>19800</v>
       </c>
       <c r="H41" s="3">
-        <v>53600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>12</v>
+        <v>25200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>54000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,28 +2053,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="F43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
-        <v>34000</v>
-      </c>
       <c r="H43" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>12</v>
+        <v>34300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>30100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,28 +2141,31 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13500</v>
+        <v>23200</v>
       </c>
       <c r="E45" s="3">
-        <v>25400</v>
+        <v>13600</v>
       </c>
       <c r="F45" s="3">
-        <v>67100</v>
+        <v>25600</v>
       </c>
       <c r="G45" s="3">
-        <v>34300</v>
+        <v>67600</v>
       </c>
       <c r="H45" s="3">
-        <v>38600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>12</v>
+        <v>34600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>38900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
@@ -2086,28 +2185,31 @@
       <c r="O45" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21100</v>
+        <v>27900</v>
       </c>
       <c r="E46" s="3">
-        <v>31800</v>
+        <v>21200</v>
       </c>
       <c r="F46" s="3">
-        <v>88900</v>
+        <v>32000</v>
       </c>
       <c r="G46" s="3">
-        <v>93400</v>
+        <v>89600</v>
       </c>
       <c r="H46" s="3">
-        <v>122000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>12</v>
+        <v>94100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>123000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,28 +2273,31 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46800</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>56100</v>
+        <v>47100</v>
       </c>
       <c r="F48" s="3">
-        <v>143700</v>
+        <v>56500</v>
       </c>
       <c r="G48" s="3">
-        <v>185600</v>
+        <v>144800</v>
       </c>
       <c r="H48" s="3">
-        <v>194800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>12</v>
+        <v>187000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>196300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>12</v>
@@ -2209,29 +2317,32 @@
       <c r="O48" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26200</v>
+        <v>24100</v>
       </c>
       <c r="E49" s="3">
-        <v>36400</v>
+        <v>26400</v>
       </c>
       <c r="F49" s="3">
+        <v>36700</v>
+      </c>
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,28 +2449,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13900</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>8900</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>11400</v>
+        <v>9000</v>
       </c>
       <c r="G52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>12</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>12</v>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,28 +2537,31 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108000</v>
+        <v>59600</v>
       </c>
       <c r="E54" s="3">
-        <v>133200</v>
+        <v>108900</v>
       </c>
       <c r="F54" s="3">
-        <v>245800</v>
+        <v>134200</v>
       </c>
       <c r="G54" s="3">
-        <v>281800</v>
+        <v>247600</v>
       </c>
       <c r="H54" s="3">
-        <v>318600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>12</v>
+        <v>283900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>321100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,28 +2619,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54500</v>
+        <v>50500</v>
       </c>
       <c r="E57" s="3">
-        <v>46100</v>
+        <v>54900</v>
       </c>
       <c r="F57" s="3">
-        <v>54500</v>
+        <v>46500</v>
       </c>
       <c r="G57" s="3">
-        <v>43400</v>
+        <v>54900</v>
       </c>
       <c r="H57" s="3">
-        <v>48300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>12</v>
+        <v>43700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>48700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
@@ -2530,28 +2661,31 @@
       <c r="O57" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90900</v>
+        <v>91000</v>
       </c>
       <c r="E58" s="3">
-        <v>127900</v>
+        <v>91600</v>
       </c>
       <c r="F58" s="3">
-        <v>136600</v>
+        <v>128800</v>
       </c>
       <c r="G58" s="3">
-        <v>168400</v>
+        <v>137700</v>
       </c>
       <c r="H58" s="3">
-        <v>171500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>12</v>
+        <v>169700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>172800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
@@ -2571,28 +2705,31 @@
       <c r="O58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171300</v>
+        <v>228800</v>
       </c>
       <c r="E59" s="3">
-        <v>133200</v>
+        <v>172600</v>
       </c>
       <c r="F59" s="3">
-        <v>56700</v>
+        <v>134200</v>
       </c>
       <c r="G59" s="3">
-        <v>53900</v>
+        <v>57100</v>
       </c>
       <c r="H59" s="3">
-        <v>49500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>12</v>
+        <v>54300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>49800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
@@ -2612,28 +2749,31 @@
       <c r="O59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316700</v>
+        <v>370400</v>
       </c>
       <c r="E60" s="3">
-        <v>307100</v>
+        <v>319100</v>
       </c>
       <c r="F60" s="3">
-        <v>247800</v>
+        <v>309500</v>
       </c>
       <c r="G60" s="3">
-        <v>265700</v>
+        <v>249700</v>
       </c>
       <c r="H60" s="3">
-        <v>269300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>12</v>
+        <v>267700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>271400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
@@ -2653,28 +2793,31 @@
       <c r="O60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91100</v>
+        <v>81200</v>
       </c>
       <c r="E61" s="3">
-        <v>105100</v>
+        <v>91800</v>
       </c>
       <c r="F61" s="3">
-        <v>75600</v>
+        <v>105900</v>
       </c>
       <c r="G61" s="3">
-        <v>67100</v>
+        <v>76100</v>
       </c>
       <c r="H61" s="3">
-        <v>79600</v>
+        <v>67600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>80200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2694,28 +2837,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49600</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>33200</v>
+        <v>49900</v>
       </c>
       <c r="F62" s="3">
-        <v>63400</v>
+        <v>33500</v>
       </c>
       <c r="G62" s="3">
-        <v>76000</v>
+        <v>63800</v>
       </c>
       <c r="H62" s="3">
-        <v>74300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>12</v>
+        <v>76500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>74900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,28 +3013,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>458900</v>
+        <v>453100</v>
       </c>
       <c r="E66" s="3">
-        <v>446900</v>
+        <v>462400</v>
       </c>
       <c r="F66" s="3">
-        <v>388200</v>
+        <v>450400</v>
       </c>
       <c r="G66" s="3">
-        <v>410200</v>
+        <v>391200</v>
       </c>
       <c r="H66" s="3">
-        <v>424800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>12</v>
+        <v>413400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>428000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>12</v>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>228800</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>209600</v>
+        <v>230500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>211200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,28 +3251,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-644600</v>
+        <v>-690800</v>
       </c>
       <c r="E72" s="3">
-        <v>-596400</v>
+        <v>-649600</v>
       </c>
       <c r="F72" s="3">
-        <v>-421600</v>
+        <v>-601000</v>
       </c>
       <c r="G72" s="3">
-        <v>-356300</v>
+        <v>-424800</v>
       </c>
       <c r="H72" s="3">
-        <v>-317600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>12</v>
+        <v>-359000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-320000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,28 +3427,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-350800</v>
+        <v>-393500</v>
       </c>
       <c r="E76" s="3">
-        <v>-313800</v>
+        <v>-353500</v>
       </c>
       <c r="F76" s="3">
-        <v>-142500</v>
+        <v>-316200</v>
       </c>
       <c r="G76" s="3">
-        <v>-357200</v>
+        <v>-143500</v>
       </c>
       <c r="H76" s="3">
-        <v>-315800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>12</v>
+        <v>-360000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-318200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>12</v>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,71 +3515,77 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48200</v>
+        <v>-41200</v>
       </c>
       <c r="E81" s="3">
-        <v>-174800</v>
+        <v>-48600</v>
       </c>
       <c r="F81" s="3">
-        <v>-65300</v>
+        <v>-176200</v>
       </c>
       <c r="G81" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>12</v>
+        <v>-65800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-39000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
@@ -3398,12 +3593,12 @@
       <c r="J81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="3">
         <v>-33900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>12</v>
       </c>
@@ -3413,8 +3608,11 @@
       <c r="O81" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,28 +3628,29 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7800</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="3">
-        <v>33700</v>
+      <c r="G83" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H83" s="3">
-        <v>24900</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>12</v>
+        <v>33900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>25100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
@@ -3459,8 +3658,8 @@
       <c r="K83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,28 +3890,31 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>12</v>
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="3">
-        <v>-13800</v>
+      <c r="G89" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H89" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>12</v>
+        <v>-13900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-8800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -3705,8 +3922,8 @@
       <c r="K89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,28 +3954,29 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="3">
-        <v>-53500</v>
+      <c r="G91" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H91" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>12</v>
+        <v>-53900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-45400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -3763,8 +3984,8 @@
       <c r="K91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,28 +4084,31 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="3">
-        <v>-55000</v>
+      <c r="G94" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H94" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>12</v>
+        <v>-55400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-45400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -3886,8 +4116,8 @@
       <c r="K94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,28 +4322,31 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>12</v>
+        <v>5200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G100" s="3">
-        <v>89200</v>
+      <c r="G100" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H100" s="3">
-        <v>105700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>12</v>
+        <v>89900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>106500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -4108,8 +4354,8 @@
       <c r="K100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4120,28 +4366,31 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>12</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>12</v>
@@ -4149,8 +4398,8 @@
       <c r="K101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4161,28 +4410,31 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="3">
-        <v>20700</v>
+      <c r="G102" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H102" s="3">
-        <v>52000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>12</v>
+        <v>20800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>52400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
@@ -4190,8 +4442,8 @@
       <c r="K102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4200,6 +4452,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -738,25 +738,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>66400</v>
+        <v>62000</v>
       </c>
       <c r="E8" s="3">
-        <v>97100</v>
+        <v>90700</v>
       </c>
       <c r="F8" s="3">
-        <v>91600</v>
+        <v>85600</v>
       </c>
       <c r="G8" s="3">
-        <v>98900</v>
+        <v>92400</v>
       </c>
       <c r="H8" s="3">
-        <v>53000</v>
+        <v>49500</v>
       </c>
       <c r="I8" s="3">
-        <v>48800</v>
+        <v>45600</v>
       </c>
       <c r="J8" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="K8" s="3">
         <v>45600</v>
@@ -782,25 +782,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41900</v>
+        <v>39100</v>
       </c>
       <c r="E9" s="3">
-        <v>107900</v>
+        <v>100800</v>
       </c>
       <c r="F9" s="3">
-        <v>82500</v>
+        <v>77000</v>
       </c>
       <c r="G9" s="3">
-        <v>109600</v>
+        <v>102400</v>
       </c>
       <c r="H9" s="3">
-        <v>55500</v>
+        <v>51800</v>
       </c>
       <c r="I9" s="3">
-        <v>52900</v>
+        <v>49400</v>
       </c>
       <c r="J9" s="3">
-        <v>51600</v>
+        <v>48200</v>
       </c>
       <c r="K9" s="3">
         <v>52200</v>
@@ -826,25 +826,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="E10" s="3">
-        <v>-10900</v>
+        <v>-10200</v>
       </c>
       <c r="F10" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="G10" s="3">
-        <v>-10700</v>
+        <v>-10000</v>
       </c>
       <c r="H10" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="I10" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="J10" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="K10" s="3">
         <v>-6600</v>
@@ -888,25 +888,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J12" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K12" s="3">
         <v>1900</v>
@@ -976,25 +976,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="E14" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="F14" s="3">
-        <v>94100</v>
+        <v>87900</v>
       </c>
       <c r="G14" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="H14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K14" s="3">
         <v>1900</v>
@@ -1079,19 +1079,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>97700</v>
+        <v>91200</v>
       </c>
       <c r="E17" s="3">
-        <v>135500</v>
+        <v>126500</v>
       </c>
       <c r="F17" s="3">
-        <v>257000</v>
+        <v>240000</v>
       </c>
       <c r="G17" s="3">
-        <v>170400</v>
+        <v>159100</v>
       </c>
       <c r="H17" s="3">
-        <v>68900</v>
+        <v>64300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
@@ -1123,19 +1123,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31300</v>
+        <v>-29200</v>
       </c>
       <c r="E18" s="3">
-        <v>-38400</v>
+        <v>-35900</v>
       </c>
       <c r="F18" s="3">
-        <v>-165300</v>
+        <v>-154400</v>
       </c>
       <c r="G18" s="3">
-        <v>-71400</v>
+        <v>-66700</v>
       </c>
       <c r="H18" s="3">
-        <v>-15900</v>
+        <v>-14800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -1185,16 +1185,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="E20" s="3">
-        <v>-10200</v>
+        <v>-9500</v>
       </c>
       <c r="F20" s="3">
-        <v>-10900</v>
+        <v>-10100</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1229,10 +1229,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="E21" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>12</v>
@@ -1317,25 +1317,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41200</v>
+        <v>-38500</v>
       </c>
       <c r="E23" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="F23" s="3">
-        <v>-176200</v>
+        <v>-164600</v>
       </c>
       <c r="G23" s="3">
-        <v>-65800</v>
+        <v>-61400</v>
       </c>
       <c r="H23" s="3">
-        <v>-19700</v>
+        <v>-18400</v>
       </c>
       <c r="I23" s="3">
-        <v>-11300</v>
+        <v>-10600</v>
       </c>
       <c r="J23" s="3">
-        <v>-23100</v>
+        <v>-21600</v>
       </c>
       <c r="K23" s="3">
         <v>-24300</v>
@@ -1449,19 +1449,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41200</v>
+        <v>-38500</v>
       </c>
       <c r="E26" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="F26" s="3">
-        <v>-176200</v>
+        <v>-164600</v>
       </c>
       <c r="G26" s="3">
-        <v>-65800</v>
+        <v>-61400</v>
       </c>
       <c r="H26" s="3">
-        <v>-19700</v>
+        <v>-18400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -1493,19 +1493,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41200</v>
+        <v>-38500</v>
       </c>
       <c r="E27" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="F27" s="3">
-        <v>-176200</v>
+        <v>-164600</v>
       </c>
       <c r="G27" s="3">
-        <v>-65800</v>
+        <v>-61400</v>
       </c>
       <c r="H27" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
@@ -1713,16 +1713,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="E32" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="F32" s="3">
-        <v>10900</v>
+        <v>10100</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1757,19 +1757,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41200</v>
+        <v>-38500</v>
       </c>
       <c r="E33" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="F33" s="3">
-        <v>-176200</v>
+        <v>-164600</v>
       </c>
       <c r="G33" s="3">
-        <v>-65800</v>
+        <v>-61400</v>
       </c>
       <c r="H33" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -1845,19 +1845,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41200</v>
+        <v>-38500</v>
       </c>
       <c r="E35" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="F35" s="3">
-        <v>-176200</v>
+        <v>-164600</v>
       </c>
       <c r="G35" s="3">
-        <v>-65800</v>
+        <v>-61400</v>
       </c>
       <c r="H35" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
@@ -1974,22 +1974,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="F41" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G41" s="3">
-        <v>19800</v>
+        <v>18500</v>
       </c>
       <c r="H41" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="I41" s="3">
-        <v>54000</v>
+        <v>50400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
@@ -2062,22 +2062,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2200</v>
-      </c>
       <c r="H43" s="3">
-        <v>34300</v>
+        <v>32000</v>
       </c>
       <c r="I43" s="3">
-        <v>30100</v>
+        <v>28100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
@@ -2150,22 +2150,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23200</v>
+        <v>21600</v>
       </c>
       <c r="E45" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="F45" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="G45" s="3">
-        <v>67600</v>
+        <v>63100</v>
       </c>
       <c r="H45" s="3">
-        <v>34600</v>
+        <v>32300</v>
       </c>
       <c r="I45" s="3">
-        <v>38900</v>
+        <v>36300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
@@ -2194,22 +2194,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27900</v>
+        <v>26000</v>
       </c>
       <c r="E46" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="F46" s="3">
-        <v>32000</v>
+        <v>29900</v>
       </c>
       <c r="G46" s="3">
-        <v>89600</v>
+        <v>83700</v>
       </c>
       <c r="H46" s="3">
-        <v>94100</v>
+        <v>87900</v>
       </c>
       <c r="I46" s="3">
-        <v>123000</v>
+        <v>114800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -2282,22 +2282,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>47100</v>
+        <v>44000</v>
       </c>
       <c r="F48" s="3">
-        <v>56500</v>
+        <v>52800</v>
       </c>
       <c r="G48" s="3">
-        <v>144800</v>
+        <v>135200</v>
       </c>
       <c r="H48" s="3">
-        <v>187000</v>
+        <v>174700</v>
       </c>
       <c r="I48" s="3">
-        <v>196300</v>
+        <v>183300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>12</v>
@@ -2326,22 +2326,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="E49" s="3">
-        <v>26400</v>
+        <v>24700</v>
       </c>
       <c r="F49" s="3">
-        <v>36700</v>
+        <v>34300</v>
       </c>
       <c r="G49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3">
-        <v>1900</v>
-      </c>
       <c r="I49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>12</v>
@@ -2458,16 +2458,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="F52" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="G52" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
@@ -2546,22 +2546,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59600</v>
+        <v>55600</v>
       </c>
       <c r="E54" s="3">
-        <v>108900</v>
+        <v>101700</v>
       </c>
       <c r="F54" s="3">
-        <v>134200</v>
+        <v>125400</v>
       </c>
       <c r="G54" s="3">
-        <v>247600</v>
+        <v>231300</v>
       </c>
       <c r="H54" s="3">
-        <v>283900</v>
+        <v>265200</v>
       </c>
       <c r="I54" s="3">
-        <v>321100</v>
+        <v>299900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
@@ -2626,22 +2626,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>50500</v>
+        <v>47200</v>
       </c>
       <c r="E57" s="3">
-        <v>54900</v>
+        <v>51300</v>
       </c>
       <c r="F57" s="3">
-        <v>46500</v>
+        <v>43400</v>
       </c>
       <c r="G57" s="3">
-        <v>54900</v>
+        <v>51300</v>
       </c>
       <c r="H57" s="3">
-        <v>43700</v>
+        <v>40800</v>
       </c>
       <c r="I57" s="3">
-        <v>48700</v>
+        <v>45500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
@@ -2670,22 +2670,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="E58" s="3">
-        <v>91600</v>
+        <v>85500</v>
       </c>
       <c r="F58" s="3">
-        <v>128800</v>
+        <v>120300</v>
       </c>
       <c r="G58" s="3">
-        <v>137700</v>
+        <v>128600</v>
       </c>
       <c r="H58" s="3">
-        <v>169700</v>
+        <v>158500</v>
       </c>
       <c r="I58" s="3">
-        <v>172800</v>
+        <v>161400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
@@ -2714,22 +2714,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>228800</v>
+        <v>213800</v>
       </c>
       <c r="E59" s="3">
-        <v>172600</v>
+        <v>161200</v>
       </c>
       <c r="F59" s="3">
-        <v>134200</v>
+        <v>125300</v>
       </c>
       <c r="G59" s="3">
-        <v>57100</v>
+        <v>53300</v>
       </c>
       <c r="H59" s="3">
-        <v>54300</v>
+        <v>50700</v>
       </c>
       <c r="I59" s="3">
-        <v>49800</v>
+        <v>46500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
@@ -2758,22 +2758,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>370400</v>
+        <v>345900</v>
       </c>
       <c r="E60" s="3">
-        <v>319100</v>
+        <v>298100</v>
       </c>
       <c r="F60" s="3">
-        <v>309500</v>
+        <v>289100</v>
       </c>
       <c r="G60" s="3">
-        <v>249700</v>
+        <v>233200</v>
       </c>
       <c r="H60" s="3">
-        <v>267700</v>
+        <v>250100</v>
       </c>
       <c r="I60" s="3">
-        <v>271400</v>
+        <v>253500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
@@ -2802,22 +2802,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81200</v>
+        <v>75900</v>
       </c>
       <c r="E61" s="3">
-        <v>91800</v>
+        <v>85800</v>
       </c>
       <c r="F61" s="3">
-        <v>105900</v>
+        <v>98900</v>
       </c>
       <c r="G61" s="3">
-        <v>76100</v>
+        <v>71100</v>
       </c>
       <c r="H61" s="3">
-        <v>67600</v>
+        <v>63100</v>
       </c>
       <c r="I61" s="3">
-        <v>80200</v>
+        <v>74900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2849,19 +2849,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>49900</v>
+        <v>46600</v>
       </c>
       <c r="F62" s="3">
-        <v>33500</v>
+        <v>31200</v>
       </c>
       <c r="G62" s="3">
-        <v>63800</v>
+        <v>59600</v>
       </c>
       <c r="H62" s="3">
-        <v>76500</v>
+        <v>71500</v>
       </c>
       <c r="I62" s="3">
-        <v>74900</v>
+        <v>70000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
@@ -3022,22 +3022,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>453100</v>
+        <v>423200</v>
       </c>
       <c r="E66" s="3">
-        <v>462400</v>
+        <v>431900</v>
       </c>
       <c r="F66" s="3">
-        <v>450400</v>
+        <v>420700</v>
       </c>
       <c r="G66" s="3">
-        <v>391200</v>
+        <v>365400</v>
       </c>
       <c r="H66" s="3">
-        <v>413400</v>
+        <v>386100</v>
       </c>
       <c r="I66" s="3">
-        <v>428000</v>
+        <v>399800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>12</v>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>230500</v>
+        <v>215300</v>
       </c>
       <c r="I70" s="3">
-        <v>211200</v>
+        <v>197300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3260,22 +3260,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-690800</v>
+        <v>-645200</v>
       </c>
       <c r="E72" s="3">
-        <v>-649600</v>
+        <v>-606800</v>
       </c>
       <c r="F72" s="3">
-        <v>-601000</v>
+        <v>-561400</v>
       </c>
       <c r="G72" s="3">
-        <v>-424800</v>
+        <v>-396800</v>
       </c>
       <c r="H72" s="3">
-        <v>-359000</v>
+        <v>-335400</v>
       </c>
       <c r="I72" s="3">
-        <v>-320000</v>
+        <v>-298900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -3436,22 +3436,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-393500</v>
+        <v>-367600</v>
       </c>
       <c r="E76" s="3">
-        <v>-353500</v>
+        <v>-330200</v>
       </c>
       <c r="F76" s="3">
-        <v>-316200</v>
+        <v>-295300</v>
       </c>
       <c r="G76" s="3">
-        <v>-143500</v>
+        <v>-134100</v>
       </c>
       <c r="H76" s="3">
-        <v>-360000</v>
+        <v>-336200</v>
       </c>
       <c r="I76" s="3">
-        <v>-318200</v>
+        <v>-297200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>12</v>
@@ -3573,19 +3573,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41200</v>
+        <v>-38500</v>
       </c>
       <c r="E81" s="3">
-        <v>-48600</v>
+        <v>-45400</v>
       </c>
       <c r="F81" s="3">
-        <v>-176200</v>
+        <v>-164600</v>
       </c>
       <c r="G81" s="3">
-        <v>-65800</v>
+        <v>-61400</v>
       </c>
       <c r="H81" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
@@ -3635,10 +3635,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
@@ -3647,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="H83" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="I83" s="3">
-        <v>25100</v>
+        <v>23500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
@@ -3899,10 +3899,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="E89" s="3">
-        <v>-12200</v>
+        <v>-11400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
@@ -3911,10 +3911,10 @@
         <v>12</v>
       </c>
       <c r="H89" s="3">
-        <v>-13900</v>
+        <v>-13000</v>
       </c>
       <c r="I89" s="3">
-        <v>-8800</v>
+        <v>-8200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -3973,10 +3973,10 @@
         <v>12</v>
       </c>
       <c r="H91" s="3">
-        <v>-53900</v>
+        <v>-50400</v>
       </c>
       <c r="I91" s="3">
-        <v>-45400</v>
+        <v>-42400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -4105,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="H94" s="3">
-        <v>-55400</v>
+        <v>-51800</v>
       </c>
       <c r="I94" s="3">
-        <v>-45400</v>
+        <v>-42400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -4331,10 +4331,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="E100" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>12</v>
@@ -4343,10 +4343,10 @@
         <v>12</v>
       </c>
       <c r="H100" s="3">
-        <v>89900</v>
+        <v>83900</v>
       </c>
       <c r="I100" s="3">
-        <v>106500</v>
+        <v>99500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -4375,10 +4375,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>12</v>
@@ -4431,10 +4431,10 @@
         <v>12</v>
       </c>
       <c r="H102" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="I102" s="3">
-        <v>52400</v>
+        <v>48900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>

--- a/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QK_QTR_FIN.xlsx
@@ -738,25 +738,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="E8" s="3">
-        <v>90700</v>
+        <v>89800</v>
       </c>
       <c r="F8" s="3">
-        <v>85600</v>
+        <v>84800</v>
       </c>
       <c r="G8" s="3">
-        <v>92400</v>
+        <v>91600</v>
       </c>
       <c r="H8" s="3">
-        <v>49500</v>
+        <v>49000</v>
       </c>
       <c r="I8" s="3">
-        <v>45600</v>
+        <v>45200</v>
       </c>
       <c r="J8" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="K8" s="3">
         <v>45600</v>
@@ -782,25 +782,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39100</v>
+        <v>38800</v>
       </c>
       <c r="E9" s="3">
-        <v>100800</v>
+        <v>99900</v>
       </c>
       <c r="F9" s="3">
-        <v>77000</v>
+        <v>76300</v>
       </c>
       <c r="G9" s="3">
-        <v>102400</v>
+        <v>101500</v>
       </c>
       <c r="H9" s="3">
-        <v>51800</v>
+        <v>51300</v>
       </c>
       <c r="I9" s="3">
-        <v>49400</v>
+        <v>49000</v>
       </c>
       <c r="J9" s="3">
-        <v>48200</v>
+        <v>47800</v>
       </c>
       <c r="K9" s="3">
         <v>52200</v>
@@ -826,22 +826,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E10" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="F10" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="G10" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="H10" s="3">
         <v>-2300</v>
       </c>
       <c r="I10" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="J10" s="3">
         <v>-4400</v>
@@ -976,16 +976,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="E14" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="G14" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="H14" s="3">
         <v>1900</v>
@@ -1079,19 +1079,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>91200</v>
+        <v>90400</v>
       </c>
       <c r="E17" s="3">
-        <v>126500</v>
+        <v>125400</v>
       </c>
       <c r="F17" s="3">
-        <v>240000</v>
+        <v>237900</v>
       </c>
       <c r="G17" s="3">
-        <v>159100</v>
+        <v>157700</v>
       </c>
       <c r="H17" s="3">
-        <v>64300</v>
+        <v>63700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
@@ -1123,19 +1123,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-29200</v>
+        <v>-28900</v>
       </c>
       <c r="E18" s="3">
-        <v>-35900</v>
+        <v>-35600</v>
       </c>
       <c r="F18" s="3">
-        <v>-154400</v>
+        <v>-153000</v>
       </c>
       <c r="G18" s="3">
-        <v>-66700</v>
+        <v>-66100</v>
       </c>
       <c r="H18" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -1185,16 +1185,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="E20" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="F20" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="G20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1229,10 +1229,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-34200</v>
+        <v>-33800</v>
       </c>
       <c r="E21" s="3">
-        <v>-38000</v>
+        <v>-37700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>12</v>
@@ -1285,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>12</v>
@@ -1317,25 +1317,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="E23" s="3">
-        <v>-45400</v>
+        <v>-45000</v>
       </c>
       <c r="F23" s="3">
-        <v>-164600</v>
+        <v>-163100</v>
       </c>
       <c r="G23" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="H23" s="3">
-        <v>-18400</v>
+        <v>-18300</v>
       </c>
       <c r="I23" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="J23" s="3">
-        <v>-21600</v>
+        <v>-21400</v>
       </c>
       <c r="K23" s="3">
         <v>-24300</v>
@@ -1449,19 +1449,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="E26" s="3">
-        <v>-45400</v>
+        <v>-45000</v>
       </c>
       <c r="F26" s="3">
-        <v>-164600</v>
+        <v>-163100</v>
       </c>
       <c r="G26" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="H26" s="3">
-        <v>-18400</v>
+        <v>-18300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -1493,19 +1493,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="E27" s="3">
-        <v>-45400</v>
+        <v>-45000</v>
       </c>
       <c r="F27" s="3">
-        <v>-164600</v>
+        <v>-163100</v>
       </c>
       <c r="G27" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="H27" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>12</v>
@@ -1713,16 +1713,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E32" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F32" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="G32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1757,19 +1757,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="E33" s="3">
-        <v>-45400</v>
+        <v>-45000</v>
       </c>
       <c r="F33" s="3">
-        <v>-164600</v>
+        <v>-163100</v>
       </c>
       <c r="G33" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="H33" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -1845,19 +1845,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="E35" s="3">
-        <v>-45400</v>
+        <v>-45000</v>
       </c>
       <c r="F35" s="3">
-        <v>-164600</v>
+        <v>-163100</v>
       </c>
       <c r="G35" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="H35" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>12</v>
@@ -1977,19 +1977,19 @@
         <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F41" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="H41" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="I41" s="3">
-        <v>50400</v>
+        <v>50000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>12</v>
@@ -2071,13 +2071,13 @@
         <v>2700</v>
       </c>
       <c r="G43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H43" s="3">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="I43" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>12</v>
@@ -2150,22 +2150,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="E45" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="F45" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="G45" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="H45" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="I45" s="3">
-        <v>36300</v>
+        <v>36000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>12</v>
@@ -2194,22 +2194,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="E46" s="3">
-        <v>19800</v>
+        <v>19700</v>
       </c>
       <c r="F46" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="G46" s="3">
-        <v>83700</v>
+        <v>82900</v>
       </c>
       <c r="H46" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="I46" s="3">
-        <v>114800</v>
+        <v>113800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -2285,19 +2285,19 @@
         <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="F48" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="G48" s="3">
-        <v>135200</v>
+        <v>134000</v>
       </c>
       <c r="H48" s="3">
-        <v>174700</v>
+        <v>173100</v>
       </c>
       <c r="I48" s="3">
-        <v>183300</v>
+        <v>181700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>12</v>
@@ -2326,19 +2326,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="E49" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="F49" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3">
         <v>1700</v>
@@ -2461,13 +2461,13 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="F52" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="G52" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
@@ -2546,22 +2546,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="E54" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="F54" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="G54" s="3">
-        <v>231300</v>
+        <v>229200</v>
       </c>
       <c r="H54" s="3">
-        <v>265200</v>
+        <v>262800</v>
       </c>
       <c r="I54" s="3">
-        <v>299900</v>
+        <v>297200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>12</v>
@@ -2626,22 +2626,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="E57" s="3">
-        <v>51300</v>
+        <v>50900</v>
       </c>
       <c r="F57" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="G57" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="H57" s="3">
-        <v>40800</v>
+        <v>40500</v>
       </c>
       <c r="I57" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>12</v>
@@ -2670,22 +2670,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>85000</v>
+        <v>84200</v>
       </c>
       <c r="E58" s="3">
-        <v>85500</v>
+        <v>84800</v>
       </c>
       <c r="F58" s="3">
-        <v>120300</v>
+        <v>119300</v>
       </c>
       <c r="G58" s="3">
-        <v>128600</v>
+        <v>127400</v>
       </c>
       <c r="H58" s="3">
-        <v>158500</v>
+        <v>157100</v>
       </c>
       <c r="I58" s="3">
-        <v>161400</v>
+        <v>160000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>12</v>
@@ -2714,22 +2714,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>213800</v>
+        <v>211800</v>
       </c>
       <c r="E59" s="3">
-        <v>161200</v>
+        <v>159800</v>
       </c>
       <c r="F59" s="3">
-        <v>125300</v>
+        <v>124200</v>
       </c>
       <c r="G59" s="3">
-        <v>53300</v>
+        <v>52800</v>
       </c>
       <c r="H59" s="3">
-        <v>50700</v>
+        <v>50300</v>
       </c>
       <c r="I59" s="3">
-        <v>46500</v>
+        <v>46100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>12</v>
@@ -2758,22 +2758,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>345900</v>
+        <v>342800</v>
       </c>
       <c r="E60" s="3">
-        <v>298100</v>
+        <v>295400</v>
       </c>
       <c r="F60" s="3">
-        <v>289100</v>
+        <v>286500</v>
       </c>
       <c r="G60" s="3">
-        <v>233200</v>
+        <v>231100</v>
       </c>
       <c r="H60" s="3">
-        <v>250100</v>
+        <v>247800</v>
       </c>
       <c r="I60" s="3">
-        <v>253500</v>
+        <v>251200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>12</v>
@@ -2802,22 +2802,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="E61" s="3">
-        <v>85800</v>
+        <v>85000</v>
       </c>
       <c r="F61" s="3">
-        <v>98900</v>
+        <v>98000</v>
       </c>
       <c r="G61" s="3">
-        <v>71100</v>
+        <v>70500</v>
       </c>
       <c r="H61" s="3">
-        <v>63100</v>
+        <v>62600</v>
       </c>
       <c r="I61" s="3">
-        <v>74900</v>
+        <v>74200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2849,19 +2849,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>46600</v>
+        <v>46200</v>
       </c>
       <c r="F62" s="3">
-        <v>31200</v>
+        <v>31000</v>
       </c>
       <c r="G62" s="3">
-        <v>59600</v>
+        <v>59100</v>
       </c>
       <c r="H62" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="I62" s="3">
-        <v>70000</v>
+        <v>69300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>12</v>
@@ -3022,22 +3022,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>423200</v>
+        <v>419400</v>
       </c>
       <c r="E66" s="3">
-        <v>431900</v>
+        <v>428000</v>
       </c>
       <c r="F66" s="3">
-        <v>420700</v>
+        <v>416900</v>
       </c>
       <c r="G66" s="3">
-        <v>365400</v>
+        <v>362100</v>
       </c>
       <c r="H66" s="3">
-        <v>386100</v>
+        <v>382600</v>
       </c>
       <c r="I66" s="3">
-        <v>399800</v>
+        <v>396200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>12</v>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>215300</v>
+        <v>213400</v>
       </c>
       <c r="I70" s="3">
-        <v>197300</v>
+        <v>195500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3260,22 +3260,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-645200</v>
+        <v>-639400</v>
       </c>
       <c r="E72" s="3">
-        <v>-606800</v>
+        <v>-601300</v>
       </c>
       <c r="F72" s="3">
-        <v>-561400</v>
+        <v>-556300</v>
       </c>
       <c r="G72" s="3">
-        <v>-396800</v>
+        <v>-393200</v>
       </c>
       <c r="H72" s="3">
-        <v>-335400</v>
+        <v>-332400</v>
       </c>
       <c r="I72" s="3">
-        <v>-298900</v>
+        <v>-296200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>12</v>
@@ -3436,22 +3436,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-367600</v>
+        <v>-364300</v>
       </c>
       <c r="E76" s="3">
-        <v>-330200</v>
+        <v>-327200</v>
       </c>
       <c r="F76" s="3">
-        <v>-295300</v>
+        <v>-292700</v>
       </c>
       <c r="G76" s="3">
-        <v>-134100</v>
+        <v>-132900</v>
       </c>
       <c r="H76" s="3">
-        <v>-336200</v>
+        <v>-333200</v>
       </c>
       <c r="I76" s="3">
-        <v>-297200</v>
+        <v>-294500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>12</v>
@@ -3573,19 +3573,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="E81" s="3">
-        <v>-45400</v>
+        <v>-45000</v>
       </c>
       <c r="F81" s="3">
-        <v>-164600</v>
+        <v>-163100</v>
       </c>
       <c r="G81" s="3">
-        <v>-61400</v>
+        <v>-60900</v>
       </c>
       <c r="H81" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>12</v>
@@ -3647,10 +3647,10 @@
         <v>12</v>
       </c>
       <c r="H83" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="I83" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>12</v>
@@ -3902,7 +3902,7 @@
         <v>-4700</v>
       </c>
       <c r="E89" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
@@ -3911,10 +3911,10 @@
         <v>12</v>
       </c>
       <c r="H89" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="I89" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -3973,10 +3973,10 @@
         <v>12</v>
       </c>
       <c r="H91" s="3">
-        <v>-50400</v>
+        <v>-49900</v>
       </c>
       <c r="I91" s="3">
-        <v>-42400</v>
+        <v>-42000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -4105,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="H94" s="3">
-        <v>-51800</v>
+        <v>-51300</v>
       </c>
       <c r="I94" s="3">
-        <v>-42400</v>
+        <v>-42000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -4334,7 +4334,7 @@
         <v>4900</v>
       </c>
       <c r="E100" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>12</v>
@@ -4343,10 +4343,10 @@
         <v>12</v>
       </c>
       <c r="H100" s="3">
-        <v>83900</v>
+        <v>83200</v>
       </c>
       <c r="I100" s="3">
-        <v>99500</v>
+        <v>98600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -4431,10 +4431,10 @@
         <v>12</v>
       </c>
       <c r="H102" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="I102" s="3">
-        <v>48900</v>
+        <v>48500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
